--- a/nr-add-lipids/ig/StructureDefinition-mesures-fr-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-fr-cholesterol-ldl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T13:56:13+00:00</t>
+    <t>2024-09-18T14:01:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1264,15 +1264,7 @@
     <t>High Range, if relevant</t>
   </si>
   <si>
-    <t>&lt;3.0 mmol/L.</t>
-  </si>
-  <si>
-    <t>Per Australian NHF Recommendations.</t>
-  </si>
-  <si>
-    <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
-  &lt;value value="3"/&gt;
-&lt;/valueQuantity&gt;</t>
+    <t>The value of the high bound of the reference range.  The high bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the high bound is omitted,  it is assumed to be meaningless (e.g. reference range is &gt;= 2.3).</t>
   </si>
   <si>
     <t>value:IVL_PQ.high</t>
@@ -6274,7 +6266,7 @@
         <v>396</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6282,7 +6274,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>82</v>
@@ -6348,7 +6340,7 @@
         <v>392</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6359,10 +6351,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6388,16 +6380,16 @@
         <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6425,10 +6417,10 @@
         <v>120</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6446,7 +6438,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6464,10 +6456,10 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>316</v>
@@ -6481,10 +6473,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6510,16 +6502,16 @@
         <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6547,10 +6539,10 @@
         <v>215</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6568,7 +6560,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6586,10 +6578,10 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>316</v>
@@ -6603,10 +6595,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6629,19 +6621,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6690,7 +6682,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6702,19 +6694,19 @@
         <v>105</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6725,10 +6717,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6754,13 +6746,13 @@
         <v>373</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6810,7 +6802,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6834,7 +6826,7 @@
         <v>392</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6845,10 +6837,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6871,16 +6863,16 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6930,7 +6922,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6951,10 +6943,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6965,10 +6957,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6991,16 +6983,16 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7050,7 +7042,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7071,10 +7063,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7085,10 +7077,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7114,16 +7106,16 @@
         <v>364</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7172,7 +7164,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7193,10 +7185,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7207,10 +7199,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7325,10 +7317,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7445,10 +7437,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7567,10 +7559,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7596,13 +7588,13 @@
         <v>198</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>213</v>
@@ -7654,7 +7646,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>93</v>
@@ -7672,7 +7664,7 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>220</v>
@@ -7689,10 +7681,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7715,16 +7707,16 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>282</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>284</v>
@@ -7776,7 +7768,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7794,7 +7786,7 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>289</v>
@@ -7811,10 +7803,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7840,13 +7832,13 @@
         <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>300</v>
@@ -7898,7 +7890,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7933,10 +7925,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7962,10 +7954,10 @@
         <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>310</v>
@@ -8020,7 +8012,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8055,10 +8047,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8084,10 +8076,10 @@
         <v>83</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>367</v>
@@ -8142,7 +8134,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-fr-cholesterol-ldl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-fr-cholesterol-ldl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:01:59+00:00</t>
+    <t>2024-09-18T14:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
